--- a/python/Dichotomous Keys/Miai Mullin.xlsx
+++ b/python/Dichotomous Keys/Miai Mullin.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW\public_html\Identification_keys_redo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW_001\python\Dichotomous Keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846B883E-12C9-489B-AB91-4B2E412D1053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE564C-D443-40DF-A684-D83ED5A0FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="2160" windowWidth="19515" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40875" yWindow="1890" windowWidth="24510" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Miai Mullin" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="206">
-  <si>
-    <t>KeyFrom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>KeyTo</t>
-  </si>
-  <si>
     <t>Stylet absent</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Mature female spiral, thickened; without protruding vulva</t>
   </si>
   <si>
-    <t>Trophonema</t>
-  </si>
-  <si>
     <t>Circumoral elevation present in females and juveniles</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>Atalodera</t>
   </si>
   <si>
-    <t>Sarisodera</t>
-  </si>
-  <si>
     <t>Heterodera</t>
   </si>
   <si>
@@ -259,9 +247,6 @@
     <t>Criconema</t>
   </si>
   <si>
-    <t>Criconemella</t>
-  </si>
-  <si>
     <t>Stylet knobs rounded, sloping anteriorly; cuticle usually with more than 200 annules</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>Histotylenchus</t>
   </si>
   <si>
-    <t>Telotylenchoides</t>
-  </si>
-  <si>
     <t>Esophagus overlapping intestine dorsally</t>
   </si>
   <si>
@@ -383,9 +365,6 @@
   </si>
   <si>
     <t>Lateral field with six lines; female tail acute or subacute</t>
-  </si>
-  <si>
-    <t>Merlinius</t>
   </si>
   <si>
     <t>Female tail conoid, with terminus usually bluntly rounded</t>
@@ -670,6 +649,18 @@
   </si>
   <si>
     <t>Nothanguina Nothotylenchus</t>
+  </si>
+  <si>
+    <t>Criconemoides</t>
+  </si>
+  <si>
+    <t>Scutylenchus</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
   </si>
 </sst>
 </file>
@@ -1544,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1556,13 +1547,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1592,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1603,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1614,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1636,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1669,10 +1660,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,10 +1671,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1702,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1713,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1724,10 +1715,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,10 +1726,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,10 +1737,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1757,10 +1748,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,10 +1759,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1779,10 +1770,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1801,10 +1792,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1823,7 +1814,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1834,7 +1825,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -1845,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1856,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <v>18</v>
@@ -1867,10 +1858,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1869,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -1889,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -1900,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -1911,10 +1902,10 @@
         <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,10 +1913,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
         <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,10 +1924,10 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,7 +1935,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>17</v>
@@ -1955,10 +1946,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,10 +1957,10 @@
         <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,10 +1968,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,7 +1979,7 @@
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C40">
         <v>19</v>
@@ -1999,10 +1990,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2010,7 +2001,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -2021,10 +2012,10 @@
         <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>21</v>
@@ -2043,7 +2034,7 @@
         <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C45">
         <v>22</v>
@@ -2054,10 +2045,10 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,10 +2056,10 @@
         <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2076,10 +2067,10 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,10 +2078,10 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2098,7 +2089,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C50">
         <v>24</v>
@@ -2109,7 +2100,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C51">
         <v>28</v>
@@ -2120,7 +2111,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2131,7 +2122,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -2142,10 +2133,10 @@
         <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,10 +2144,10 @@
         <v>25</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,10 +2155,10 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2175,7 +2166,7 @@
         <v>26</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C57">
         <v>27</v>
@@ -2186,10 +2177,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,10 +2188,10 @@
         <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,7 +2199,7 @@
         <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C60">
         <v>29</v>
@@ -2219,10 +2210,10 @@
         <v>28</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,7 +2221,7 @@
         <v>28</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C62">
         <v>44</v>
@@ -2241,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C63">
         <v>30</v>
@@ -2252,7 +2243,7 @@
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>37</v>
@@ -2263,7 +2254,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -2274,7 +2265,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>33</v>
@@ -2285,7 +2276,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C67">
         <v>32</v>
@@ -2296,10 +2287,10 @@
         <v>31</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,10 +2298,10 @@
         <v>32</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2318,10 +2309,10 @@
         <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2329,10 +2320,10 @@
         <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,7 +2331,7 @@
         <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C72">
         <v>34</v>
@@ -2351,10 +2342,10 @@
         <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2362,7 +2353,7 @@
         <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C74">
         <v>35</v>
@@ -2373,10 +2364,10 @@
         <v>35</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2384,7 +2375,7 @@
         <v>35</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C76">
         <v>36</v>
@@ -2395,10 +2386,10 @@
         <v>36</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,10 +2397,10 @@
         <v>36</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2417,7 +2408,7 @@
         <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C79">
         <v>38</v>
@@ -2428,7 +2419,7 @@
         <v>37</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C80">
         <v>40</v>
@@ -2439,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C81">
         <v>39</v>
@@ -2450,7 +2441,7 @@
         <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C82">
         <v>41</v>
@@ -2461,10 +2452,10 @@
         <v>39</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2472,10 +2463,10 @@
         <v>39</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2483,10 +2474,10 @@
         <v>40</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2494,10 +2485,10 @@
         <v>40</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,7 +2496,7 @@
         <v>41</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C87">
         <v>42</v>
@@ -2516,10 +2507,10 @@
         <v>41</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2527,10 +2518,10 @@
         <v>42</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,7 +2529,7 @@
         <v>42</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C90">
         <v>43</v>
@@ -2549,10 +2540,10 @@
         <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2560,10 +2551,10 @@
         <v>43</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2571,7 +2562,7 @@
         <v>44</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C93">
         <v>45</v>
@@ -2582,7 +2573,7 @@
         <v>44</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C94">
         <v>49</v>
@@ -2593,7 +2584,7 @@
         <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C95">
         <v>46</v>
@@ -2604,7 +2595,7 @@
         <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C96">
         <v>47</v>
@@ -2615,10 +2606,10 @@
         <v>46</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2626,7 +2617,7 @@
         <v>46</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C98">
         <v>48</v>
@@ -2637,10 +2628,10 @@
         <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2648,10 +2639,10 @@
         <v>47</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2659,10 +2650,10 @@
         <v>48</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2670,10 +2661,10 @@
         <v>48</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2681,10 +2672,10 @@
         <v>49</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,7 +2683,7 @@
         <v>49</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C104">
         <v>50</v>
@@ -2703,7 +2694,7 @@
         <v>50</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C105">
         <v>61</v>
@@ -2714,7 +2705,7 @@
         <v>50</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C106">
         <v>51</v>
@@ -2725,7 +2716,7 @@
         <v>51</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C107">
         <v>52</v>
@@ -2736,7 +2727,7 @@
         <v>51</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C108">
         <v>59</v>
@@ -2747,7 +2738,7 @@
         <v>52</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C109">
         <v>53</v>
@@ -2758,7 +2749,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C110">
         <v>56</v>
@@ -2769,7 +2760,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C111">
         <v>54</v>
@@ -2780,10 +2771,10 @@
         <v>53</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,7 +2782,7 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C113">
         <v>55</v>
@@ -2802,10 +2793,10 @@
         <v>54</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2804,10 @@
         <v>55</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +2815,10 @@
         <v>55</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,7 +2826,7 @@
         <v>56</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C117">
         <v>57</v>
@@ -2846,7 +2837,7 @@
         <v>56</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C118">
         <v>58</v>
@@ -2857,10 +2848,10 @@
         <v>57</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,10 +2859,10 @@
         <v>57</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,10 +2870,10 @@
         <v>58</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C121" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,10 +2881,10 @@
         <v>58</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,7 +2892,7 @@
         <v>59</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C123">
         <v>60</v>
@@ -2912,10 +2903,10 @@
         <v>59</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,10 +2914,10 @@
         <v>60</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,10 +2925,10 @@
         <v>60</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C126" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,7 +2936,7 @@
         <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C127">
         <v>62</v>
@@ -2956,7 +2947,7 @@
         <v>61</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C128">
         <v>63</v>
@@ -2967,10 +2958,10 @@
         <v>62</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,10 +2969,10 @@
         <v>62</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,7 +2980,7 @@
         <v>63</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C131">
         <v>64</v>
@@ -3000,7 +2991,7 @@
         <v>63</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C132">
         <v>65</v>
@@ -3011,10 +3002,10 @@
         <v>64</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C133" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3022,10 +3013,10 @@
         <v>64</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,10 +3024,10 @@
         <v>65</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C135" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,10 +3035,10 @@
         <v>65</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">

--- a/python/Dichotomous Keys/Miai Mullin.xlsx
+++ b/python/Dichotomous Keys/Miai Mullin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW_001\python\Dichotomous Keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE564C-D443-40DF-A684-D83ED5A0FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9100DB6-8F3B-48F7-96D4-DFF9FC05FEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40875" yWindow="1890" windowWidth="24510" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30375" yWindow="2415" windowWidth="22965" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="205">
   <si>
     <t>Description</t>
   </si>
@@ -661,6 +661,12 @@
   </si>
   <si>
     <t>To</t>
+  </si>
+  <si>
+    <t>Telotylenchoides/Paratrophurus</t>
+  </si>
+  <si>
+    <t>Gracilacus/Paratylenchus</t>
   </si>
 </sst>
 </file>
@@ -1535,13 +1541,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="73.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2554,7 +2561,7 @@
         <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,7 +2935,7 @@
         <v>191</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">

--- a/python/Dichotomous Keys/Miai Mullin.xlsx
+++ b/python/Dichotomous Keys/Miai Mullin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\WKW_001\python\Dichotomous Keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9100DB6-8F3B-48F7-96D4-DFF9FC05FEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5034BBB0-DA7D-4161-8545-6EB6C2FB40AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="2415" windowWidth="22965" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="1170" windowWidth="27360" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Head with setae; no plant parasites</t>
   </si>
   <si>
-    <t>Eutylenchus</t>
-  </si>
-  <si>
-    <t>Atylenchus</t>
-  </si>
-  <si>
     <t>Head without setae; numerous plant parasites</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
   </si>
   <si>
     <t>Tylenchorhynchus</t>
-  </si>
-  <si>
-    <t>Paratrophurus</t>
   </si>
   <si>
     <t>Phasmids enlarged</t>
@@ -654,19 +645,34 @@
     <t>Criconemoides</t>
   </si>
   <si>
-    <t>Scutylenchus</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>Telotylenchoides/Paratrophurus</t>
-  </si>
-  <si>
-    <t>Gracilacus/Paratylenchus</t>
+    <t>Telotylenchoides Paratrophurus</t>
+  </si>
+  <si>
+    <t>Scutylenchus Merlinius</t>
+  </si>
+  <si>
+    <t>Paratrophurus Telotylenchoides</t>
+  </si>
+  <si>
+    <t>Gracilacus Paratylenchus</t>
+  </si>
+  <si>
+    <t>Heterodera Sarisodera</t>
+  </si>
+  <si>
+    <t>Trophotylenchulus Trophonema</t>
+  </si>
+  <si>
+    <t>Bursaphelenchus Rhadinaphelenchus</t>
+  </si>
+  <si>
+    <t>Eutylenchus Atylenchus</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1554,13 +1560,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1634,10 +1640,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1656,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1667,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1678,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1689,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1700,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1722,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1744,7 +1750,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1755,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1769,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,21 +1783,21 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,21 +1805,21 @@
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>198</v>
+        <v>134</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,21 +1827,21 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,21 +1849,21 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28">
         <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,19 +1873,19 @@
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
-        <v>21</v>
+      <c r="C29">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,21 +1893,21 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,21 +1915,21 @@
         <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
         <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,19 +1939,19 @@
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C35" t="s">
-        <v>28</v>
+      <c r="C35">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
         <v>29</v>
-      </c>
-      <c r="C36">
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,21 +1959,21 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" t="s">
         <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,21 +1981,21 @@
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
+        <v>190</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,21 +2003,21 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s">
-        <v>35</v>
+        <v>141</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,19 +2027,19 @@
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C43" t="s">
-        <v>37</v>
+      <c r="C43">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,21 +2058,21 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,21 +2080,21 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
+        <v>143</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,21 +2102,21 @@
         <v>23</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,21 +2124,21 @@
         <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53">
-        <v>26</v>
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,18 +2146,18 @@
         <v>25</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
         <v>46</v>
@@ -2164,19 +2170,19 @@
       <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C56" t="s">
-        <v>48</v>
+      <c r="C56">
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,7 +2190,7 @@
         <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -2192,13 +2198,13 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="s">
-        <v>52</v>
+        <v>148</v>
+      </c>
+      <c r="C59">
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2212,10 @@
         <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60">
-        <v>29</v>
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,21 +2223,21 @@
         <v>28</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
+        <v>150</v>
+      </c>
+      <c r="C61">
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C62">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,21 +2245,21 @@
         <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="C64">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,21 +2267,21 @@
         <v>30</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="C65">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="C66">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,18 +2289,18 @@
         <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>56</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>59</v>
@@ -2327,21 +2333,21 @@
         <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" t="s">
-        <v>62</v>
+        <v>155</v>
+      </c>
+      <c r="C71">
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72">
-        <v>34</v>
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,21 +2355,21 @@
         <v>34</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>63</v>
+        <v>157</v>
+      </c>
+      <c r="C73">
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2373,19 +2379,19 @@
       <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C75" t="s">
-        <v>65</v>
+      <c r="C75">
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
         <v>66</v>
-      </c>
-      <c r="C76">
-        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,21 +2399,21 @@
         <v>36</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" t="s">
         <v>67</v>
-      </c>
-      <c r="C77" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C78">
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,21 +2421,21 @@
         <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,21 +2443,21 @@
         <v>38</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82">
-        <v>41</v>
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,21 +2465,21 @@
         <v>39</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2489,13 +2495,13 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" t="s">
-        <v>78</v>
+        <v>160</v>
+      </c>
+      <c r="C86">
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,21 +2509,21 @@
         <v>41</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87">
-        <v>42</v>
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,21 +2531,21 @@
         <v>42</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" t="s">
-        <v>80</v>
+        <v>163</v>
+      </c>
+      <c r="C89">
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90">
-        <v>43</v>
+        <v>191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,21 +2553,21 @@
         <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" t="s">
-        <v>204</v>
+        <v>80</v>
+      </c>
+      <c r="C92">
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,21 +2575,21 @@
         <v>44</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,21 +2597,21 @@
         <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96">
-        <v>47</v>
+        <v>164</v>
+      </c>
+      <c r="C96" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,21 +2619,21 @@
         <v>46</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
+        <v>165</v>
+      </c>
+      <c r="C97">
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,18 +2641,18 @@
         <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s">
         <v>87</v>
-      </c>
-      <c r="C99" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
         <v>89</v>
@@ -2665,7 +2671,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>92</v>
@@ -2681,19 +2687,19 @@
       <c r="B103" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C103" t="s">
-        <v>95</v>
+      <c r="C103">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,21 +2707,21 @@
         <v>50</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="C106">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,21 +2729,21 @@
         <v>51</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C107">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C108">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2745,21 +2751,21 @@
         <v>52</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C109">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="C110">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,21 +2773,21 @@
         <v>53</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" t="s">
         <v>99</v>
-      </c>
-      <c r="C111">
-        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
+        <v>171</v>
+      </c>
+      <c r="C112">
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,21 +2795,21 @@
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C113">
-        <v>55</v>
+        <v>172</v>
+      </c>
+      <c r="C113" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2811,21 +2817,21 @@
         <v>55</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C116" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="C116">
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,21 +2839,21 @@
         <v>56</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
         <v>105</v>
-      </c>
-      <c r="C118">
-        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,7 +2869,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>108</v>
@@ -2877,21 +2883,21 @@
         <v>58</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" t="s">
         <v>110</v>
-      </c>
-      <c r="C121" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C122" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C122">
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,21 +2905,21 @@
         <v>59</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123">
-        <v>60</v>
+        <v>112</v>
+      </c>
+      <c r="C123" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" t="s">
         <v>114</v>
-      </c>
-      <c r="C124" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2921,21 +2927,21 @@
         <v>60</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="C125" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C126" t="s">
-        <v>203</v>
+        <v>189</v>
+      </c>
+      <c r="C126">
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2943,21 +2949,21 @@
         <v>61</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="C127">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C128">
-        <v>63</v>
+        <v>186</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,21 +2971,21 @@
         <v>62</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C130" t="s">
-        <v>120</v>
+        <v>176</v>
+      </c>
+      <c r="C130">
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,21 +2993,21 @@
         <v>63</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="C131">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C132">
-        <v>65</v>
+        <v>177</v>
+      </c>
+      <c r="C132" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3009,21 +3015,21 @@
         <v>64</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3031,28 +3037,17 @@
         <v>65</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C135" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>65</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C136" t="s">
-        <v>126</v>
-      </c>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
